--- a/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.04502413656543484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03052051699583561</v>
+        <v>0.0305205169958356</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02264697446296609</v>
@@ -693,7 +693,7 @@
         <v>0.02927138353023925</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02836117168474108</v>
+        <v>0.02836117168474107</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0431382074384493</v>
+        <v>0.04368194541479236</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03130807856632662</v>
+        <v>0.03047438011152893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02643723011308149</v>
+        <v>0.02673441104273594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005934469579635846</v>
+        <v>0.005932653082975236</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01203227476059114</v>
+        <v>0.01089448474955101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009766502692710377</v>
+        <v>0.009308657932292953</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004533683698948142</v>
+        <v>0.004793697876044081</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.009435813380159965</v>
+        <v>0.006546509811866519</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03176168440332713</v>
+        <v>0.03161382976177109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02407116866652322</v>
+        <v>0.02455223064706423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01816538433314686</v>
+        <v>0.01876458532227537</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0119939172300318</v>
+        <v>0.01130608349649986</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0889047800163036</v>
+        <v>0.08825739983622244</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0861437378817508</v>
+        <v>0.08400295919414606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07454160387704285</v>
+        <v>0.07591605592425277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1124355046085923</v>
+        <v>0.1084791701165956</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03869026702457674</v>
+        <v>0.04041197669996287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03983634897201068</v>
+        <v>0.03787137903154519</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02752781447101612</v>
+        <v>0.02742507819199624</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07741693727975893</v>
+        <v>0.0672200141249384</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05821933076396447</v>
+        <v>0.05813542143570896</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05486890460592195</v>
+        <v>0.05384888053449625</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04484338106085452</v>
+        <v>0.04605456334091398</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07203745008840443</v>
+        <v>0.07196618954116457</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03286873783307342</v>
+        <v>0.03227083925760743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03256250111973315</v>
+        <v>0.03352040719508452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02403063564787989</v>
+        <v>0.02286999027694468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0206804239095567</v>
+        <v>0.02050535757416846</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01549737483875319</v>
+        <v>0.01443069127610687</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01010446869384561</v>
+        <v>0.01014926408015824</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008391861876663274</v>
+        <v>0.008172380670091541</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00364311889928091</v>
+        <v>0.00368548373046139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02742142004347645</v>
+        <v>0.02777837485767193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02594296192616839</v>
+        <v>0.02547589812894203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01893513876913706</v>
+        <v>0.01869182377858559</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01437554939934557</v>
+        <v>0.01456095691499426</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06485279721962009</v>
+        <v>0.06509284123509038</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06664401850651563</v>
+        <v>0.06792064356861154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05600297048053107</v>
+        <v>0.05570694314901516</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1478969329238121</v>
+        <v>0.1636216195639794</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04191049440192439</v>
+        <v>0.04198239932497554</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03640319216135996</v>
+        <v>0.03619998949200418</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03018422354517426</v>
+        <v>0.030885835774578</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02182999329890533</v>
+        <v>0.02482726813122857</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04860502298056556</v>
+        <v>0.0488527809246841</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04927177660907929</v>
+        <v>0.04799388810649353</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03846389754498384</v>
+        <v>0.03936785143209685</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07690056633797715</v>
+        <v>0.07145892527521716</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.03332686998663977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01910114621808853</v>
+        <v>0.01910114621808852</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01945002597090942</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01172143254492591</v>
+        <v>0.01186829927130796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01272034718183057</v>
+        <v>0.01290035397311588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02047607822978607</v>
+        <v>0.02044111913697204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01013572917010778</v>
+        <v>0.009510004576513258</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01008849904191798</v>
+        <v>0.01069181023054055</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.009401853854767479</v>
+        <v>0.01061991438971263</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008121491896189719</v>
+        <v>0.008879578066549591</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01118790637329889</v>
+        <v>0.01235728354058668</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01392993127270994</v>
+        <v>0.01406643151226712</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01320665271612372</v>
+        <v>0.01251332290097116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01784577326390568</v>
+        <v>0.01761940712352284</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01291977720278515</v>
+        <v>0.01302389539950674</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03545908224437795</v>
+        <v>0.03727480832016399</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03829357130481575</v>
+        <v>0.03902561885279824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05279524942288595</v>
+        <v>0.0516118488033606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03556027076844108</v>
+        <v>0.03382224251520133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03196736861675042</v>
+        <v>0.0346081445349322</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03178813235492693</v>
+        <v>0.03366049114845192</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03048181807537958</v>
+        <v>0.0312059193578549</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04251458525868571</v>
+        <v>0.04096398560977609</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03076890188307533</v>
+        <v>0.02913540835878448</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02989708460371726</v>
+        <v>0.02915017532357459</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0366758382163569</v>
+        <v>0.03649300014846947</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0313787002605485</v>
+        <v>0.03053032734716403</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.01928847115011036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03412542918652278</v>
+        <v>0.03412542918652277</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01874342969057755</v>
@@ -1101,7 +1101,7 @@
         <v>0.01744537248697749</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02880202525946588</v>
+        <v>0.02880202525946587</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02005418090239412</v>
+        <v>0.02022740876509442</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006418735726796774</v>
+        <v>0.005361099718676039</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01058908595378243</v>
+        <v>0.009469764308122892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02171559431700264</v>
+        <v>0.02031338091387361</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.00970770765295959</v>
+        <v>0.00952602726946181</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01902277324166502</v>
+        <v>0.01811218062260869</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006761635889814065</v>
+        <v>0.007456910330815499</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01408456804937066</v>
+        <v>0.0140902001301614</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01710134912619092</v>
+        <v>0.01698793526658466</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01464094453756385</v>
+        <v>0.01455997381636252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01097441886819168</v>
+        <v>0.01177623132125705</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01983894894370577</v>
+        <v>0.01954981655124387</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0555492259605511</v>
+        <v>0.05467979940899095</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02626045758378157</v>
+        <v>0.02588656935251103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03414787401447905</v>
+        <v>0.03341122445198016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05274141616902627</v>
+        <v>0.05541290724885108</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03438538805368774</v>
+        <v>0.03436055332082669</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05129225713584219</v>
+        <v>0.04870848813884966</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02752425834932164</v>
+        <v>0.02862623385893839</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04204975879480943</v>
+        <v>0.04307346418937435</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03701307228708627</v>
+        <v>0.03828310499257018</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03282359558227982</v>
+        <v>0.03329461054056823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02656631148443406</v>
+        <v>0.02717896039550384</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04078046298038023</v>
+        <v>0.04050452946382693</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007548452489026672</v>
+        <v>0.007699072181862351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002522497953054411</v>
+        <v>0.002541191818890834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002176450655244459</v>
+        <v>0.002094653703328984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00646054534280451</v>
+        <v>0.005906967228985584</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01249500502133328</v>
+        <v>0.01165179601827954</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01619037305164576</v>
+        <v>0.01457123711909473</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01672547829570006</v>
+        <v>0.01639472846444465</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01502794198842538</v>
+        <v>0.01471717412917392</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01314224172271822</v>
+        <v>0.01347635806189005</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01126405403019857</v>
+        <v>0.01120675133677461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01084369028327019</v>
+        <v>0.01127949977105928</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01272868268658652</v>
+        <v>0.01253184714038399</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03873312906201304</v>
+        <v>0.03817208124691401</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02558578281122582</v>
+        <v>0.02533335845525641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01966314190551256</v>
+        <v>0.01975904599812634</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02417841646406261</v>
+        <v>0.0225417339657767</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04301512637785454</v>
+        <v>0.04398853148707832</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04749373720422278</v>
+        <v>0.05006560429470432</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05554268977352306</v>
+        <v>0.05554602690210883</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03505425414874141</v>
+        <v>0.03423303410481767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03494931147976454</v>
+        <v>0.03459304411339593</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03039909484574355</v>
+        <v>0.03062472994309414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03232760702244292</v>
+        <v>0.03178893277109458</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02541727370732394</v>
+        <v>0.02544669520994242</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.0423379453904882</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05140469839386271</v>
+        <v>0.0514046983938627</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01879830481441994</v>
@@ -1373,7 +1373,7 @@
         <v>0.02907332138188125</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03567132717551955</v>
+        <v>0.03567132717551956</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006060600097171652</v>
+        <v>0.006059907883244718</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01296736400936438</v>
+        <v>0.01300940584629598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005523553682172738</v>
+        <v>0.005256601734960862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009566126825807868</v>
+        <v>0.009496132440457977</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01010652425342068</v>
+        <v>0.01027975211761368</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01991423683099876</v>
+        <v>0.02136671639485364</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.025879601830192</v>
+        <v>0.02526138755718387</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03678787190181457</v>
+        <v>0.03539994355263411</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009583217278381006</v>
+        <v>0.01023316283917476</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02090203044648357</v>
+        <v>0.0208233724749911</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0191161134632079</v>
+        <v>0.0177983844705227</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02590133299522644</v>
+        <v>0.02580938494225126</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03474089362698084</v>
+        <v>0.03528831609696646</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05707776423805436</v>
+        <v>0.05572156274361367</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03409824374120644</v>
+        <v>0.030976667268248</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03254092668710161</v>
+        <v>0.03265746628177904</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03956233627550313</v>
+        <v>0.04005490676040055</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0594183038924884</v>
+        <v>0.05841294544065553</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0708170128020723</v>
+        <v>0.06741826140304426</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07489658332109785</v>
+        <v>0.0735531480868313</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03138526060923815</v>
+        <v>0.03063391633075177</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05085123055770649</v>
+        <v>0.04893686375616423</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04399043611540648</v>
+        <v>0.04410628337643214</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04891792018504732</v>
+        <v>0.04890203065186149</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.03145180894715122</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04309504202535746</v>
+        <v>0.04309504202535745</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.063916979373776</v>
@@ -1497,7 +1497,7 @@
         <v>0.05698570731768923</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07420092501409568</v>
+        <v>0.07420092501409567</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.05009802842077608</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01118936619637077</v>
+        <v>0.01201362170437184</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01650157864412403</v>
+        <v>0.01634761174325125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01563245554361293</v>
+        <v>0.0158200556677269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02338968909209887</v>
+        <v>0.02172447657498845</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03832391726305594</v>
+        <v>0.03916394194125148</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03483309979593898</v>
+        <v>0.0350649774567275</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03454373618426274</v>
+        <v>0.03418089961650878</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05509569121627046</v>
+        <v>0.05549887932734607</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03284456161810339</v>
+        <v>0.03173480619517648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03173985438735075</v>
+        <v>0.03273896324009239</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03112981109214145</v>
+        <v>0.03091291428865271</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04854404315067405</v>
+        <v>0.04766594259749031</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06149771232616809</v>
+        <v>0.06113606871119733</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06279624915183606</v>
+        <v>0.06372046826016231</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05388588934569574</v>
+        <v>0.05464596281318898</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1104363671404074</v>
+        <v>0.1008861912601682</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09596110688152616</v>
+        <v>0.09741838113480997</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1025479068127531</v>
+        <v>0.1022481573520754</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08709896518736035</v>
+        <v>0.08697533114610061</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09872634895033995</v>
+        <v>0.0995340971102244</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07343347876891658</v>
+        <v>0.07251030652037657</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.07386465815955641</v>
+        <v>0.07739708304908251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06738407163736396</v>
+        <v>0.06994821198866792</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08814480665563823</v>
+        <v>0.08367950713358784</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>0.02629667609185174</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02991882845759533</v>
+        <v>0.02991882845759531</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02898512042542526</v>
+        <v>0.02833757401958699</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02422572262813119</v>
+        <v>0.02418310232647984</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02187646429132508</v>
+        <v>0.02153013701519191</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01999720716370805</v>
+        <v>0.02123184564255736</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02128344198704389</v>
+        <v>0.02125226576188163</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02279376212921106</v>
+        <v>0.02304603838569797</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0197299554598118</v>
+        <v>0.02021126054932927</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02574160470221613</v>
+        <v>0.02621756098626296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02625722132472932</v>
+        <v>0.02663167260052028</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02500217870059641</v>
+        <v>0.02486820562373286</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02242191537878683</v>
+        <v>0.02234047411835091</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02542475503701554</v>
+        <v>0.02540161896374034</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04196238575823196</v>
+        <v>0.04256357165521018</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03664433556149696</v>
+        <v>0.03636190452472516</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03406785161785184</v>
+        <v>0.03332279556072419</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04050258900231032</v>
+        <v>0.04244925122318187</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03313768095169301</v>
+        <v>0.03283375383606094</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03503512578932171</v>
+        <v>0.03553418573503586</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03175498039211487</v>
+        <v>0.03159032243786142</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03745025366954969</v>
+        <v>0.03873923704906284</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03460871515325969</v>
+        <v>0.03484482005015143</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03376173600994834</v>
+        <v>0.0342685396285512</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03038933710069749</v>
+        <v>0.03024648338919782</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03660602890491138</v>
+        <v>0.03733960352202007</v>
       </c>
     </row>
     <row r="28">
